--- a/class_schedules_spring_2018/FIRST YEAR SEMINAR PROGRAM (FYSP).xlsx
+++ b/class_schedules_spring_2018/FIRST YEAR SEMINAR PROGRAM (FYSP).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>162</t>
   </si>
@@ -31,10 +31,16 @@
     <t>F</t>
   </si>
   <si>
-    <t>Cold War in Asia TR</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Cold War in Asia</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>1050am</t>
   </si>
   <si>
     <t>PETE</t>
@@ -401,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -438,8 +444,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -472,6 +484,12 @@
       </c>
       <c r="K2" t="s">
         <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
